--- a/public/template/excel/format_laporan_operasi_2021_preview_date_compare_new.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021_preview_date_compare_new.xlsx
@@ -1312,7 +1312,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1555,6 +1555,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1931,7 +1934,7 @@
       <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="93" t="s">
         <v>301</v>
       </c>
       <c r="C6" s="45"/>
